--- a/Excel Project.xlsx
+++ b/Excel Project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Dropbox\School Works\current courses\AIS\Excel Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Desktop\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="Loan Application" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -63,42 +65,86 @@
     <t>Contact Information</t>
   </si>
   <si>
-    <t>Outstanding Debts</t>
-  </si>
-  <si>
     <t>Rental</t>
   </si>
   <si>
     <t>Mortage</t>
   </si>
   <si>
-    <t>Debt 1:</t>
-  </si>
-  <si>
-    <t>Type:</t>
-  </si>
-  <si>
-    <t>Amount:</t>
-  </si>
-  <si>
-    <t>Debt 2:</t>
-  </si>
-  <si>
-    <t>Debt 3:</t>
-  </si>
-  <si>
-    <t>Debt 4:</t>
-  </si>
-  <si>
-    <t>Additional Debts (not required)</t>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Marital Status Options</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Gender Options</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Housing Options</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Debt Number</t>
+  </si>
+  <si>
+    <t>Debt Type Options</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Student Loans</t>
+  </si>
+  <si>
+    <t>Car Loans</t>
+  </si>
+  <si>
+    <t>Boat Loans</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Other Revovling Debts</t>
+  </si>
+  <si>
+    <t>Outstanding Debts (Must Provide At Least 4 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\(###\)\-###\-####"/>
+    <numFmt numFmtId="165" formatCode="##\-###\-####"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -109,7 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,42 +162,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -164,12 +239,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -177,145 +324,99 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="PivotTable Style 1" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,36 +429,32 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Option Button 2" hidden="1">
+            <xdr:cNvPr id="1033" name="Button 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
+                  <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -372,100 +469,60 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Add Debt</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Option Button 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F4:I8" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Debt Number"/>
+    <tableColumn id="2" name="Company Name"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,223 +789,172 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="14">
+        <v>1234567890</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="21">
+        <v>862888234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="G13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="G14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="9"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G13:I13"/>
+  <mergeCells count="10">
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="enter numbers only" sqref="C6 C10"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -958,42 +964,20 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Option Button 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="radioButtonRental">
-                <anchor moveWithCells="1">
+            <control shapeId="1033" r:id="rId4" name="Button 9">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!addDebt" altText="Add Debt">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Option Button 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="radioButtonMortage">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1003,6 +987,39 @@
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$8:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$13:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet3!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5:H8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1017,4 +1034,121 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Project.xlsx
+++ b/Excel Project.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Application" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Drop Down Options" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="MSN_MoneyCentral_Investor_Stock_Quotes" localSheetId="1">Sheet1!$A$2:$P$14</definedName>
+    <definedName name="NumberOfTickerSymbol">OFFSET('Loan Application'!$B$23,0,0,COUNTA('Loan Application'!$B:$B),1)</definedName>
+    <definedName name="StockReference">INDRIECT(Sheet1!$D$1)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,8 +31,19 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="C:\Users\Lin\Desktop\AIS\MSN MoneyCentral Investor Stock Quotes.iqy" name="MSN MoneyCentral Investor Stock Quotes" type="4" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" url="http://moneycentral.msn.com/investor/external/excel/quotes.asp?SYMBOL=[&quot;QUOTE&quot;,&quot;Enter stock, fund or other MSN MoneyCentral Investor symbols separated by commas.&quot;]" htmlFormat="all"/>
+    <parameters count="1">
+      <parameter name="QUOTE" parameterType="value" string="=NumberOfTickerSymbol"/>
+    </parameters>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -59,9 +75,6 @@
     <t>Current Housing Cost</t>
   </si>
   <si>
-    <t>Bubba Snacks Loan Application Form</t>
-  </si>
-  <si>
     <t>Contact Information</t>
   </si>
   <si>
@@ -135,6 +148,117 @@
   </si>
   <si>
     <t>Outstanding Debts (Must Provide At Least 4 )</t>
+  </si>
+  <si>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Industry of Company</t>
+  </si>
+  <si>
+    <t>Stock Company Industry Options</t>
+  </si>
+  <si>
+    <t>Number of Shares Held</t>
+  </si>
+  <si>
+    <t>Loan Request Amount</t>
+  </si>
+  <si>
+    <t>Loan Application Form</t>
+  </si>
+  <si>
+    <t>Stock Ticker Symbol</t>
+  </si>
+  <si>
+    <t>Stock Profile</t>
+  </si>
+  <si>
+    <t>Total Number of Stocks in Profile</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Stock Quotes Provided by MSN Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click here to visit MSN Money </t>
+  </si>
+  <si>
+    <t>MSN Money Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office Tools on the Web </t>
+  </si>
+  <si>
+    <t>Get the latest from Microsoft Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of Use. © 2014 Microsoft Corporation and/or its suppliers. All rights reserved. </t>
+  </si>
+  <si>
+    <t>DATA PROVIDERS</t>
+  </si>
+  <si>
+    <t>Copyright © 2014 Microsoft. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Fundamental company data and historical chart data provided by Morningstar Inc. Real-time index quotes and delayed quotes supplied by Morningstar Inc. Quotes delayed by up to 15 minutes, except where indicated otherwise. Fund summary, fund performance and dividend data provided by Morningstar Inc. Analyst recommendations provided by Zacks Investment Research. IPO data provided by Hoover's Inc. Index membership data provided by Morningstar Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdChoices </t>
+  </si>
+  <si>
+    <t>coke</t>
   </si>
 </sst>
 </file>
@@ -146,7 +270,7 @@
     <numFmt numFmtId="164" formatCode="\(###\)\-###\-####"/>
     <numFmt numFmtId="165" formatCode="##\-###\-####"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +315,84 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,50 +429,37 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -341,13 +528,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,63 +690,157 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotTable Style 1" table="0" count="0"/>
   </tableStyles>
@@ -438,20 +865,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Button 9" hidden="1">
+            <xdr:cNvPr id="1033" name="Button 9" descr="Add Debt" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
@@ -513,11 +940,15 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN MoneyCentral Investor Stock Quotes" refreshOnLoad="1" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F4:I8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F6:I10" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Debt Number"/>
-    <tableColumn id="2" name="Company Name"/>
+    <tableColumn id="1" name="Debt Number" dataDxfId="2"/>
+    <tableColumn id="2" name="Company Name" dataDxfId="1"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="Amount"/>
   </tableColumns>
@@ -789,16 +1220,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -809,151 +1243,245 @@
     <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="15">
+        <v>1234567890</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
+      <c r="C9" s="1"/>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="17">
+        <v>862888234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75">
+      <c r="A21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38">
+        <f ca="1">COUNTA(NumberOfTickerSymbol)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="9"/>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickTop="1">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14">
-        <v>1234567890</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="21">
-        <v>862888234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="B23:B25" sheet="Loan Application"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="12">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="enter numbers only" sqref="C6 C10"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="enter numbers only" sqref="C8 C12"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>1</formula1>
+      <formula2>5000000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
+      <formula1>0</formula1>
+      <formula2>500000000000000000</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -968,16 +1496,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!addDebt" altText="Add Debt">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>428625</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -992,30 +1520,36 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$A$2:$A$5</xm:f>
+            <xm:f>'Drop Down Options'!$B$3:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
+          <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$A$8:$A$10</xm:f>
+            <xm:f>'Drop Down Options'!$B$7:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$A$13:$A$14</xm:f>
+            <xm:f>'Drop Down Options'!$B$9:$G$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7:H10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Drop Down Options'!$B$5:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$C$2:$C$7</xm:f>
+            <xm:f>'Drop Down Options'!$B$11:$M$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H8</xm:sqref>
+          <xm:sqref>E23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1026,12 +1560,310 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" t="str">
+        <f ca="1">INDIRECT("'Loan Application'!B"&amp;22+'Loan Application'!E21)</f>
+        <v>AAPL</v>
+      </c>
+      <c r="C1">
+        <f ca="1">22+'Loan Application'!E21</f>
+        <v>25</v>
+      </c>
+      <c r="D1" t="str">
+        <f ca="1">CONCATENATE("'Loan Application'!$B$",C1)</f>
+        <v>'Loan Application'!$B$25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A5" s="49">
+        <f ca="1">MSN_MoneyCentral_Investor_Stock_Quotes</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+    </row>
+    <row r="12" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="http://money.msn.com/"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://money.msn.com/"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://office.microsoft.com/"/>
+    <hyperlink ref="A7" r:id="rId4" display="http://g.msn.com/0TO_/enus"/>
+    <hyperlink ref="A14" r:id="rId5" display="http://go.microsoft.com/fwlink/?LinkID=286759"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1043,7 +1875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1052,100 +1884,223 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D9" s="30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="E9" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="F9" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="G9" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="31" t="e">
+        <f ca="1">IF('Loan Application'!E21=0,"",IF('Loan Application'!E21=1,'Loan Application'!B23,CONCATENATE(TRANSPOSE('Loan Application'!B23:INDIRECT("'Loan Application'!B" &amp; Sheet1!B1)))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="e">
+        <f ca="1">CONCATENATE(TRANSPOSE('Loan Application'!B23:INDIRECT("'Loan Application'!B" &amp; Sheet1!B1))&amp;",")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" t="str">
+        <f>CONCATENATE(B3:E3&amp;",")</f>
+        <v>Single,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" t="str">
+        <f>(B3:E3)</f>
+        <v>Single</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Project.xlsx
+++ b/Excel Project.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Desktop\AIS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Application" sheetId="1" r:id="rId1"/>
@@ -22,8 +17,11 @@
     <definedName name="NumberOfTickerSymbol">OFFSET('Loan Application'!$B$23,0,0,COUNTA('Loan Application'!$B:$B),1)</definedName>
     <definedName name="StockReference">INDRIECT(Sheet1!$D$1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -266,11 +264,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="\(###\)\-###\-####"/>
-    <numFmt numFmtId="165" formatCode="##\-###\-####"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\(###\)\-###\-####"/>
+    <numFmt numFmtId="166" formatCode="##\-###\-####"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,14 +539,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,23 +554,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,10 +593,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,18 +604,18 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -628,7 +626,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -640,7 +638,7 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,14 +647,14 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -664,19 +662,19 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -697,9 +695,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,13 +711,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,38 +730,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -785,42 +756,69 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -830,15 +828,15 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -866,19 +864,19 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Button 9" descr="Add Debt" hidden="1">
+            <xdr:cNvPr id="1033" name="Button 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
@@ -887,7 +885,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -895,15 +893,9 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -915,6 +907,8 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:t>Add Debt</a:t>
               </a:r>
@@ -928,6 +922,8 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -945,10 +941,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F6:I10" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F6:I10" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="4">
-    <tableColumn id="1" name="Debt Number" dataDxfId="2"/>
-    <tableColumn id="2" name="Company Name" dataDxfId="1"/>
+    <tableColumn id="1" name="Debt Number" dataDxfId="1"/>
+    <tableColumn id="2" name="Company Name" dataDxfId="0"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="Amount"/>
   </tableColumns>
@@ -999,7 +995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1030,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1211,7 +1207,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,31 +1215,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
+    <row r="1" spans="1:9" ht="25">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -1251,16 +1247,16 @@
     <row r="2" spans="1:9" ht="10.5" customHeight="1">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="18">
+      <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1268,165 +1264,165 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="15">
+      <c r="B8" s="43"/>
+      <c r="C8" s="14">
         <v>1234567890</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="C9" s="1"/>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="17">
+      <c r="B12" s="41"/>
+      <c r="C12" s="16">
         <v>862888234</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="18"/>
       <c r="F16" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="E18" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38">
+      <c r="D21" s="28"/>
+      <c r="E21" s="29">
         <f ca="1">COUNTA(NumberOfTickerSymbol)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickTop="1">
+    <row r="23" spans="1:5" ht="15" thickTop="1">
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C23">
@@ -1437,7 +1433,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="36" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1445,12 +1441,12 @@
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="57"/>
+      <c r="B26" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -1459,11 +1455,6 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="12">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F5:I5"/>
@@ -1471,6 +1462,11 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="enter numbers only" sqref="C8 C12"/>
@@ -1484,39 +1480,40 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId4" name="Button 9">
+            <control shapeId="1033" r:id="rId3" name="Button 9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!addDebt" altText="Add Debt">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>215900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1553,31 +1550,34 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="10" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1594,245 +1594,245 @@
         <v>'Loan Application'!$B$25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25" thickBot="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:16" ht="26" thickBot="1">
+      <c r="A2" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A3" s="45" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1">
+      <c r="A3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="46" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A5" s="49">
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1">
+      <c r="A5" s="55">
         <f ca="1">MSN_MoneyCentral_Investor_Stock_Quotes</f>
         <v>0</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="51" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="35" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1843,6 +1843,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="A7:P7"/>
     <mergeCell ref="A8:P8"/>
@@ -1850,12 +1856,6 @@
     <mergeCell ref="A10:P10"/>
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://money.msn.com/"/>
@@ -1865,63 +1865,73 @@
     <hyperlink ref="A14" r:id="rId5" display="http://go.microsoft.com/fwlink/?LinkID=286759"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A3" s="29" t="s">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1"/>
@@ -1929,7 +1939,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1940,17 +1950,17 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:13" ht="15" thickBot="1">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1"/>
@@ -1959,7 +1969,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1970,14 +1980,14 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
@@ -1987,7 +1997,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1998,32 +2008,32 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="A9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2034,53 +2044,53 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="A11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A13" s="29" t="s">
+    <row r="12" spans="1:13" ht="15" thickBot="1"/>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="A13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="31" t="e">
+      <c r="B13" s="24" t="e">
         <f ca="1">IF('Loan Application'!E21=0,"",IF('Loan Application'!E21=1,'Loan Application'!B23,CONCATENATE(TRANSPOSE('Loan Application'!B23:INDIRECT("'Loan Application'!B" &amp; Sheet1!B1)))))</f>
         <v>#REF!</v>
       </c>
@@ -2105,5 +2115,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>